--- a/medicine/Sexualité et sexologie/Ava_(film,_2017)/Ava_(film,_2017).xlsx
+++ b/medicine/Sexualité et sexologie/Ava_(film,_2017)/Ava_(film,_2017).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ava est un film français écrit et réalisé par Léa Mysius sorti en 2017. Le film a concouru lors de la 56e Semaine de la critique[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ava est un film français écrit et réalisé par Léa Mysius sorti en 2017. Le film a concouru lors de la 56e Semaine de la critique,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alors qu'elle est en vacances au bord de l'océan avec sa mère Maud, la jeune Ava, une adolescente âgée de treize ans (Noée Abita, née en 1999, avait 17 ans au moment du tournage), assiste à une dispute entre deux jeunes hommes que tente de séparer une jeune femme. L'un des deux hommes, Juan, est arrêté et emmené par la police, car il n'est pas en possession de ses papiers. 
 Le lendemain, lors d'une visite médicale, Ava apprend que sa vue, qui est menacée par une maladie, se détériore plus vite que prévu : Ava sera bientôt incapable de voir en lumière basse et son champ de vision se rétrécit. Alors que sa mère fond en larmes durant le trajet de retour, Ava semble accueillir la nouvelle avec froideur. Le soir, Ava décide de constater l'état de son œil en peignant la limite de son champ de vision en faible luminosité.
@@ -550,7 +564,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Titre : Ava
@@ -573,7 +589,7 @@
 Budget : 2 000 000 €
 Format : couleur - 1.85 - Dolby 5.1
 Dates de sortie :
-France : 19 mai 2017 (Semaine de la critique)[3] ; 21 juin 2017 (sortie nationale)[4]
+France : 19 mai 2017 (Semaine de la critique) ; 21 juin 2017 (sortie nationale)
 Suisse : 5 juillet 2017 (Festival international du film fantastique de Neuchâtel 2017)
 </t>
         </is>
@@ -603,7 +619,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Noée Abita : Ava
 Laure Calamy : Maud
@@ -642,13 +660,88 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Scénario
-Il s'agit du scénario de fin d'étude de la réalisatrice Léa Mysius, pour le département scénario de La Femis en 2014. Le scénario, élaboré avec le concours de Paul Guilhaume, a par la suite gagné le Prix Arlequin du Prix Sopadin Junior. Le film est parti d'une vision : « J'avais l'image du début ; un chien noir qui court sur la plage, l'idée de mystère, un néoréalisme qui bascule dans le film de conte et presque le film de genre ». Par ailleurs, lors de l'écriture, Léa Mysius était victime de migraines ophtalmiques, l'obligeant à écrire dans le noir. C'est de là que traiter la maladie dégénérative appelée rétinite pigmentaire lui est venue, tout en souhaitant faire un parallèle avec la vague noire en France[Quoi ?] et la montée de l'obscurantisme, apportant au film un « côté politique ». La cinéaste ajoute que le film met en avant le conflit de génération avec la relation mère-fille, et qu'il s'agit « d'une histoire d'amour avant tout ».
-Le chien joue pour la réalisatrice un rôle de « guide » pour l'héroïne qui se construit et grandit. Le chien noir avait déjà été exploité dans son deuxième court-métrage, Les Oiseaux-tonnerre, et elle souhaitait aller plus loin sur ce sujet avec Ava. Elle affirme mettre dans son film beaucoup d'éléments personnels, sans pour autant faire du film un biopic : « Les décors sont les lieux de mon enfance et les personnages et les situations sont inspirés de choses que je connais et que j'ai lues, vues ». Le personnage de Juan quant à lui est inspiré d'un gitan que la réalisatrice a connu dans son collège, alors que ce dernier se faisait rejeter par les professeurs et les élèves[5],[6],[7].
-Casting
-Noée Abita est l'actrice qui obtient le rôle d'Ava. Après s'être renseignée dans une agence de comédiens, il lui est proposé de passer le casting pour le film avec une amie. Elle passe l'audition le premier jour, et la réalisatrice affirme que lorsqu'elle « est entrée dans la pièce [...] il y a quelque chose qui a changé ». Il n'a donc pas été difficile pour la réalisatrice de trouver son actrice. Cependant, trouver l'interprète de Juan a été plus complexe. Elle entreprend de faire un long casting sauvage dans une cinquantaine d'aires de gens du voyage autour de Paris, et dans le Sud de la France[6],[7]. « On a vu environ trois cents personnes, et on l'a trouvé à côté de Bordeaux [...] »
-Musique
-La musique originale est composée par Florencia Di Concilio[8].
+          <t>Scénario</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit du scénario de fin d'étude de la réalisatrice Léa Mysius, pour le département scénario de La Femis en 2014. Le scénario, élaboré avec le concours de Paul Guilhaume, a par la suite gagné le Prix Arlequin du Prix Sopadin Junior. Le film est parti d'une vision : « J'avais l'image du début ; un chien noir qui court sur la plage, l'idée de mystère, un néoréalisme qui bascule dans le film de conte et presque le film de genre ». Par ailleurs, lors de l'écriture, Léa Mysius était victime de migraines ophtalmiques, l'obligeant à écrire dans le noir. C'est de là que traiter la maladie dégénérative appelée rétinite pigmentaire lui est venue, tout en souhaitant faire un parallèle avec la vague noire en France[Quoi ?] et la montée de l'obscurantisme, apportant au film un « côté politique ». La cinéaste ajoute que le film met en avant le conflit de génération avec la relation mère-fille, et qu'il s'agit « d'une histoire d'amour avant tout ».
+Le chien joue pour la réalisatrice un rôle de « guide » pour l'héroïne qui se construit et grandit. Le chien noir avait déjà été exploité dans son deuxième court-métrage, Les Oiseaux-tonnerre, et elle souhaitait aller plus loin sur ce sujet avec Ava. Elle affirme mettre dans son film beaucoup d'éléments personnels, sans pour autant faire du film un biopic : « Les décors sont les lieux de mon enfance et les personnages et les situations sont inspirés de choses que je connais et que j'ai lues, vues ». Le personnage de Juan quant à lui est inspiré d'un gitan que la réalisatrice a connu dans son collège, alors que ce dernier se faisait rejeter par les professeurs et les élèves.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ava_(film,_2017)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ava_(film,_2017)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Casting</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Noée Abita est l'actrice qui obtient le rôle d'Ava. Après s'être renseignée dans une agence de comédiens, il lui est proposé de passer le casting pour le film avec une amie. Elle passe l'audition le premier jour, et la réalisatrice affirme que lorsqu'elle « est entrée dans la pièce [...] il y a quelque chose qui a changé ». Il n'a donc pas été difficile pour la réalisatrice de trouver son actrice. Cependant, trouver l'interprète de Juan a été plus complexe. Elle entreprend de faire un long casting sauvage dans une cinquantaine d'aires de gens du voyage autour de Paris, et dans le Sud de la France,. « On a vu environ trois cents personnes, et on l'a trouvé à côté de Bordeaux [...] »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ava_(film,_2017)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ava_(film,_2017)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La musique originale est composée par Florencia Di Concilio.
 Des extraits musicaux sont aussi inclus dans le film :
 She Ain't a Child No More de Sharon Jones
 Passacaglia della vita de Rosemary Standley et Dom La Nena
@@ -657,78 +750,157 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ava_(film,_2017)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ava_(film,_2017)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ava_(film,_2017)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ava_(film,_2017)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Accueil critique
-Lors de sa sortie nationale, le film est plutôt bien accueilli par la critique presse avec une moyenne de 3.5/5 (pour 22 critiques) sur Allociné. Parmi les bonnes critiques, Culturopoing.com souligne notamment que le film « révèle une actrice et confirme une réalisatrice », Le Figaro reconnaît un « premier long-métrage parfaitement maîtrisé », tout comme L'Humanité, qui voit en Ava « un premier long métrage fascinant et riche de promesses ». Les Inrockuptibles note notamment, concernant l'esthétique, que « le film s'autorise des moments plus relâchés de pure beauté plastique et sensuelle ». Enfin, Télérama affirme que le film est « un festival des sens, que la mise en scène décuple, en déployant musique (de la contrebasse percutante à l'envol d'une mélopée électro hispanisante, la BO est un régal !), couleurs saturées, élans et effets de ruptures ».
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de sa sortie nationale, le film est plutôt bien accueilli par la critique presse avec une moyenne de 3.5/5 (pour 22 critiques) sur Allociné. Parmi les bonnes critiques, Culturopoing.com souligne notamment que le film « révèle une actrice et confirme une réalisatrice », Le Figaro reconnaît un « premier long-métrage parfaitement maîtrisé », tout comme L'Humanité, qui voit en Ava « un premier long métrage fascinant et riche de promesses ». Les Inrockuptibles note notamment, concernant l'esthétique, que « le film s'autorise des moments plus relâchés de pure beauté plastique et sensuelle ». Enfin, Télérama affirme que le film est « un festival des sens, que la mise en scène décuple, en déployant musique (de la contrebasse percutante à l'envol d'une mélopée électro hispanisante, la BO est un régal !), couleurs saturées, élans et effets de ruptures ».
 Parmi les critiques mitigées, Bande à part regrette un film qui « souffre par endroits de quelques baisses de tension, le spectateur reste toujours captif de la beauté du cadre et de la lumière [...] », et Première fait un parallèle avec le film Grave : « Là où Grave réussissait à sidérer par son propos franchement transgressif sur les plaisirs de la chair, Ava ne parvient pas à rendre complètement tranchant son discours sur la liberté des esprits et des corps ».
-Parmi les critiques les plus négatives, c'est le manque de nouveauté qui est souligné, notamment avec les Cahiers du cinéma, qui affirme que « Le film a beau afficher son penchant pour l’étrangeté, il désamorce lui-même ce qui pourrait, à chaque fois, le guider vers un ailleurs. Rien de nouveau sous le soleil » ; tandis que Le Dauphiné libéré reproche à Léa Mysius sa difficulté « à éviter les clichés qui guettent ». Quant à Ouest-France, il voit « le discours sur la liberté [...] un peu trop simpliste et les fulgurances graphiques un peu trop sages pour convaincre totalement »[9].
-Box-office
-Au cours de sa première semaine de sortie (du 21 au 27 juin 2017), Ava se positionne en quinzième au box office français en réalisant 36 167 entrées, dont 17 716 à Paris[10],[11]. La semaine suivante (du 28 juin au 04 juillet), le film finit à la 20e place avec 21 663 entrées[12]. Au total durant son exploitation, le film réalise 80 221 entrées en France[13].
+Parmi les critiques les plus négatives, c'est le manque de nouveauté qui est souligné, notamment avec les Cahiers du cinéma, qui affirme que « Le film a beau afficher son penchant pour l’étrangeté, il désamorce lui-même ce qui pourrait, à chaque fois, le guider vers un ailleurs. Rien de nouveau sous le soleil » ; tandis que Le Dauphiné libéré reproche à Léa Mysius sa difficulté « à éviter les clichés qui guettent ». Quant à Ouest-France, il voit « le discours sur la liberté [...] un peu trop simpliste et les fulgurances graphiques un peu trop sages pour convaincre totalement ».
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ava_(film,_2017)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ava_(film,_2017)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ava_(film,_2017)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ava_(film,_2017)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours de sa première semaine de sortie (du 21 au 27 juin 2017), Ava se positionne en quinzième au box office français en réalisant 36 167 entrées, dont 17 716 à Paris,. La semaine suivante (du 28 juin au 04 juillet), le film finit à la 20e place avec 21 663 entrées. Au total durant son exploitation, le film réalise 80 221 entrées en France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ava_(film,_2017)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ava_(film,_2017)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Récompenses
-Prix Sopadin Junior du meilleur scénario 2014 : prix Arlequin[14]
-Festival de Cannes 2017 : Semaine de la critique - Prix SACD[15], et prix du jury de la Palme Dog pour le chien Lupo
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Prix Sopadin Junior du meilleur scénario 2014 : prix Arlequin
+Festival de Cannes 2017 : Semaine de la critique - Prix SACD, et prix du jury de la Palme Dog pour le chien Lupo
 Festival du nouveau cinéma Montréal 2017 : Louve d'or
 Festival international du film de femmes de Salé 2017 : prix du jury
 Festival international du film de Stockholm 2017 : Meilleure photographie pour Paul Guilhaume
-Festival international du film de Palm Springs 2018 : prix spécial du jury New Voices/New Visions
-Nominations et sélections
-Festival International du Film de Munich 2017 : compétition CineVision[16]
-César 2018 : Nomination au César de la meilleure actrice dans un second rôle pour Laure Calamy, et présélection au César du meilleur espoir féminin pour Noée Abita [17].</t>
+Festival international du film de Palm Springs 2018 : prix spécial du jury New Voices/New Visions</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ava_(film,_2017)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ava_(film,_2017)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nominations et sélections</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Festival International du Film de Munich 2017 : compétition CineVision
+César 2018 : Nomination au César de la meilleure actrice dans un second rôle pour Laure Calamy, et présélection au César du meilleur espoir féminin pour Noée Abita .</t>
         </is>
       </c>
     </row>
